--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value988.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value988.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.552098123635991</v>
+        <v>0.5294015407562256</v>
       </c>
       <c r="B1">
-        <v>4.239363790563374</v>
+        <v>0.4796834290027618</v>
       </c>
       <c r="C1">
-        <v>4.440388244921398</v>
+        <v>3.511420965194702</v>
       </c>
       <c r="D1">
-        <v>1.293494268931023</v>
+        <v>1.655008554458618</v>
       </c>
       <c r="E1">
-        <v>0.7871627760336045</v>
+        <v>1.164329767227173</v>
       </c>
     </row>
   </sheetData>
